--- a/ExcelFiles/busDir_data.xlsx
+++ b/ExcelFiles/busDir_data.xlsx
@@ -29,21 +29,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
-    <t>${valid_keyword}</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>${invalid_keyword}</t>
+    <t>dharun</t>
   </si>
   <si>
     <t>@</t>
-  </si>
-  <si>
-    <t>${no_match_keyt}</t>
   </si>
   <si>
     <t>1 2 3 4 5 6</t>
@@ -669,14 +672,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1003,30 +1006,39 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
-    <col min="2" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,27 +1049,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -1069,30 +1093,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="C2" s="3">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ExcelFiles/busDir_data.xlsx
+++ b/ExcelFiles/busDir_data.xlsx
@@ -29,24 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>${valid_keyword}</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>dharun</t>
+    <t>${invalid_keyword}</t>
   </si>
   <si>
     <t>@</t>
+  </si>
+  <si>
+    <t>${no_match_keyt}</t>
   </si>
   <si>
     <t>1 2 3 4 5 6</t>
@@ -672,14 +669,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1006,39 +1003,30 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="3" width="28.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1049,39 +1037,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1234</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1093,40 +1069,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>1234</v>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
